--- a/medicine/Enfance/Grete_Weiskopf/Grete_Weiskopf.xlsx
+++ b/medicine/Enfance/Grete_Weiskopf/Grete_Weiskopf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grete Weiskopf, de son vrai nom Margarete Bernheim (née le 11 mai 1905 à Salzbourg, morte le 15 mars 1966 à Saalfeld), est une autrice allemande de littérature d'enfance écrivant sous le pseudonyme d'Alex Wedding.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1925, Grete Bernheim gagne sa vie comme sténographe, libraire ou employée de banque à Berlin.
 En 1928, elle épouse l'écrivain Franz Carl Weiskopf, originaire de Tchécoslovaquie, membre du KPD et de l'Association des écrivains prolétariens révolutionnaires. En 1931, elle publie sous le pseudonyme d'Alex Wedding chez Malik-Verlag son premier livre pour enfants Ede und Unku qui se retrouvera dans les autodafés de 1933. Cette même année, elle fuit avec son mari à Prague puis en 1939 à Paris et New York.
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ede und Unku. Malik-Verlag, Berlin 1931
 Das Eismeer ruft. Malik-Verlag, London 1936
@@ -582,7 +598,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scénario
 1957: Lissy
